--- a/Projeto/Geração das Amostras/excel/planilha_4.xlsx
+++ b/Projeto/Geração das Amostras/excel/planilha_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>exam_id</t>
   </si>
@@ -28,6 +28,126 @@
   </si>
   <si>
     <t>comentario</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga AE e VE. Interferência </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE e AE </t>
+  </si>
+  <si>
+    <t>Sobrecarga VE. Onda Q patológica em V1</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Com taquicardia ventricular em seguida</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Sobrecarga VD e AD. Isquemka de parede antero septal com supra de ST em V2 e V3</t>
+  </si>
+  <si>
+    <t>1dAVB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE e AE. Onda Q patológica em V1. Interferência </t>
+  </si>
+  <si>
+    <t>Extrassistole ventricular isolada monomorfica.</t>
+  </si>
+  <si>
+    <t>Sobrecarga VE,  AE e VD. Onda Q patológica em V1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemi bloqueio antero superior. Extrassistole ventricular isolada monomorfica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VD. Onda Q patológica em V1 </t>
+  </si>
+  <si>
+    <t>Sobrecarga AD, AE, VE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VD e VE. Q patológica em V1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistole ventricular isolada monomorfica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemi bloqueio antero superior </t>
+  </si>
+  <si>
+    <t>RBBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mais hemi bloqueio de ramo antero superior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE e VD </t>
+  </si>
+  <si>
+    <t>Extrassistoles ventriculares monomorficas bigeminadas</t>
+  </si>
+  <si>
+    <t>Sobrecarga AE e AD</t>
+  </si>
+  <si>
+    <t>Bloqueio de ramo direito e sobrecarga de VE</t>
+  </si>
+  <si>
+    <t>Sobrecarga VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interferência </t>
+  </si>
+  <si>
+    <t>Interferência</t>
+  </si>
+  <si>
+    <t>Ausência de V1 e V3</t>
+  </si>
+  <si>
+    <t>Sobrecarga VE, VD, AE, AD.</t>
+  </si>
+  <si>
+    <t>Sobrecarga VE e AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistoles supraventriculares monomorficas. Interferência </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga de VE,  AE,  AD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga AE e VE </t>
+  </si>
+  <si>
+    <t>Arritmia sinusal</t>
+  </si>
+  <si>
+    <t>Mais FA</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Interferência. Extrassistoles ventriculares bigeminadas monomorficas</t>
+  </si>
+  <si>
+    <t>Taquicardia sinusal</t>
   </si>
 </sst>
 </file>
@@ -81,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -89,6 +209,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -330,309 +453,587 @@
       <c r="A2" s="2">
         <v>1789163.0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>1794048.0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>1798370.0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1804120.0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>1831160.0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>1836798.0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>1842218.0</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>1848905.0</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>1856702.0</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>1860143.0</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>1862980.0</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>1868972.0</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>1873732.0</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>1891463.0</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>1900920.0</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>1904289.0</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>1904342.0</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>1926800.0</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>1927643.0</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>1928570.0</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>1933944.0</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>1960521.0</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>1963513.0</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>1964395.0</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>1985037.0</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>2007170.0</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>2500692.0</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>2513566.0</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>2518759.0</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>2519668.0</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>2520897.0</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>2521574.0</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>2534394.0</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>2655478.0</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>2659904.0</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>2682903.0</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>2684998.0</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>2729712.0</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>2745828.0</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>2752429.0</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>2760109.0</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>2761107.0</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>2763079.0</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>2765246.0</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">

--- a/Projeto/Geração das Amostras/excel/planilha_4.xlsx
+++ b/Projeto/Geração das Amostras/excel/planilha_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>exam_id</t>
   </si>
@@ -148,6 +148,54 @@
   </si>
   <si>
     <t>Taquicardia sinusal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arritmia sinusal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistoles supraventriculares monomorficas. Sobrecarga de AE, VE e VD </t>
+  </si>
+  <si>
+    <t>LBBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE. Interferência </t>
+  </si>
+  <si>
+    <t>Presença ES ventriculares monomorficas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistoles ventriculares monomorficas bigeminadas. Sobrecarga VE, AE e VD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistole ventricular isolada </t>
+  </si>
+  <si>
+    <t>Sobrecarga VD e AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE.  Onda Q patológica em V1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE. Extrassistoles supraventriculares monomorficas. Onda Q patológica em V1 </t>
+  </si>
+  <si>
+    <t>Onda Q patológica em V1  e aVR</t>
+  </si>
+  <si>
+    <t>Onda Q patológica em V1 a V4</t>
+  </si>
+  <si>
+    <t>Onda Q patológica em V1 e aVR. Extrassistole ventricular isolada</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>QRS com 120 ms em V1 e duraçao limítrofe nas outras derivações precordiais. Arritmia sinusal</t>
   </si>
 </sst>
 </file>
@@ -1039,253 +1087,478 @@
       <c r="A46" s="2">
         <v>2786220.0</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>2790986.0</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>2795604.0</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>2798599.0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>2801043.0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>2829833.0</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>2840851.0</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>2892639.0</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>2893509.0</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>2924418.0</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>2935860.0</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>2946010.0</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>2952745.0</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>2969545.0</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>2969902.0</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>2973866.0</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>2976376.0</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>2997714.0</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>3017385.0</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>3025466.0</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>3043152.0</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>3049169.0</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>3076914.0</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>3086494.0</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>3089145.0</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>3089612.0</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>3129118.0</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>3162755.0</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>3172865.0</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>3185095.0</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>3403340.0</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>3407055.0</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>4213031.0</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>4254987.0</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>4407923.0</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>4408321.0</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
